--- a/sagawa.xlsx
+++ b/sagawa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>パターン</t>
   </si>
@@ -61,78 +61,6 @@
     <t>401118818170</t>
   </si>
   <si>
-    <t>401118818181</t>
-  </si>
-  <si>
-    <t>401118818192</t>
-  </si>
-  <si>
-    <t>401118818203</t>
-  </si>
-  <si>
-    <t>401118818214</t>
-  </si>
-  <si>
-    <t>401118818225</t>
-  </si>
-  <si>
-    <t>401118818236</t>
-  </si>
-  <si>
-    <t>401118818240</t>
-  </si>
-  <si>
-    <t>401118818251</t>
-  </si>
-  <si>
-    <t>401118818262</t>
-  </si>
-  <si>
-    <t>401118818273</t>
-  </si>
-  <si>
-    <t>401118818284</t>
-  </si>
-  <si>
-    <t>401118818295</t>
-  </si>
-  <si>
-    <t>401118818306</t>
-  </si>
-  <si>
-    <t>401118818310</t>
-  </si>
-  <si>
-    <t>401118818321</t>
-  </si>
-  <si>
-    <t>401118818332</t>
-  </si>
-  <si>
-    <t>401118818343</t>
-  </si>
-  <si>
-    <t>401118818354</t>
-  </si>
-  <si>
-    <t>401118818365</t>
-  </si>
-  <si>
-    <t>401118818376</t>
-  </si>
-  <si>
-    <t>401118818380</t>
-  </si>
-  <si>
-    <t>401118818391</t>
-  </si>
-  <si>
-    <t>401118818402</t>
-  </si>
-  <si>
-    <t>401118818413</t>
-  </si>
-  <si>
     <t>お荷物のお届けが完了致しました。
 ご利用頂きありがとうございました。
 配達完了日　　：
@@ -145,9 +73,10 @@
 03月19日　12時21分</t>
   </si>
   <si>
-    <t>配達にお伺いする予定です。
-配達予定日　　：
-03月19日</t>
+    <t>お荷物のお届けが完了致しました。
+ご利用頂きありがとうございました。
+配達完了日　　：
+03月19日　15時44分</t>
   </si>
   <si>
     <t>お荷物のお届けが完了致しました。
@@ -156,7 +85,7 @@
 03月19日　09時48分</t>
   </si>
   <si>
-    <t>ご不在でしたので、お荷物のお届けが済んでおりません。</t>
+    <t>配達営業所（サービスセンター等）にてお荷物をお預かりしております。</t>
   </si>
   <si>
     <t>お荷物のお届けが完了致しました。
@@ -174,6 +103,12 @@
     <t>お荷物のお届けが完了致しました。
 ご利用頂きありがとうございました。
 配達完了日　　：
+03月19日　14時54分</t>
+  </si>
+  <si>
+    <t>お荷物のお届けが完了致しました。
+ご利用頂きありがとうございました。
+配達完了日　　：
 03月19日　10時48分</t>
   </si>
   <si>
@@ -187,89 +122,6 @@
 ご利用頂きありがとうございました。
 配達完了日　　：
 03月19日　13時17分</t>
-  </si>
-  <si>
-    <t>配達営業所（サービスセンター等）にてお荷物をお預かりしております。</t>
-  </si>
-  <si>
-    <t>ただいま配達営業所へ輸送中です。</t>
-  </si>
-  <si>
-    <t>お荷物のお届けが完了致しました。
-ご利用頂きありがとうございました。
-配達完了日　　：
-03月19日　13時25分</t>
-  </si>
-  <si>
-    <t>お荷物のお届けが完了致しました。
-ご利用頂きありがとうございました。
-配達完了日　　：
-03月19日　11時18分</t>
-  </si>
-  <si>
-    <t>お荷物のお届けが完了致しました。
-ご利用頂きありがとうございました。
-配達完了日　　：
-03月19日　10時53分</t>
-  </si>
-  <si>
-    <t>お荷物のお届けが完了致しました。
-ご利用頂きありがとうございました。
-配達完了日　　：
-03月19日　11時35分</t>
-  </si>
-  <si>
-    <t>お荷物のお届けが完了致しました。
-ご利用頂きありがとうございました。
-配達完了日　　：
-03月19日　09時09分</t>
-  </si>
-  <si>
-    <t>ただいま配達営業所へ輸送中です。
-配達予定日　　：
-03月19日　15～21時</t>
-  </si>
-  <si>
-    <t>お荷物のお届けが完了致しました。
-ご利用頂きありがとうございました。
-配達完了日　　：
-03月19日　11時25分</t>
-  </si>
-  <si>
-    <t>お荷物のお届けが完了致しました。
-ご利用頂きありがとうございました。
-配達完了日　　：
-03月19日　09時52分</t>
-  </si>
-  <si>
-    <t>お荷物のお届けが完了致しました。
-ご利用頂きありがとうございました。
-配達完了日　　：
-03月19日　10時23分</t>
-  </si>
-  <si>
-    <t>お荷物のお届けが完了致しました。
-ご利用頂きありがとうございました。
-配達完了日　　：
-03月19日　11時46分</t>
-  </si>
-  <si>
-    <t>お荷物のお届けが完了致しました。
-ご利用頂きありがとうございました。
-配達完了日　　：
-03月19日　12時18分</t>
-  </si>
-  <si>
-    <t>お荷物のお届けが完了致しました。
-ご利用頂きありがとうございました。
-配達完了日　　：
-03月19日　12時47分</t>
-  </si>
-  <si>
-    <t>お荷物のお届けが完了致しました。
-ご利用頂きありがとうございました。
-配達完了日　　：
-03月19日　10時40分</t>
   </si>
 </sst>
 </file>
@@ -627,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -663,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -674,7 +526,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -685,7 +537,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -696,7 +548,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -707,7 +559,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -718,7 +570,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -729,7 +581,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -740,7 +592,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -751,7 +603,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -762,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -770,263 +622,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
         <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
